--- a/VT_Model_SUP_V01.xlsx
+++ b/VT_Model_SUP_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_BLANCK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://institutesustainableenergy-my.sharepoint.com/personal/ignacia_silva_student_innoenergy_com/Documents/Escritorio/Master/Energy Policy/Model_MSc_SELECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C067757-9E94-4C61-90DF-8EC8567C0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{6C067757-9E94-4C61-90DF-8EC8567C0593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{456D1428-51D5-4B65-9A96-6B0D722BC1D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="102">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -1027,15 +1027,79 @@
   </si>
   <si>
     <t>All processes BUT gas at the DAYNITE</t>
+  </si>
+  <si>
+    <t>MIN_SOLAR</t>
+  </si>
+  <si>
+    <t>Solar irradiation</t>
+  </si>
+  <si>
+    <t>PJ</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>DAYNITE</t>
+  </si>
+  <si>
+    <t>WIND_ON</t>
+  </si>
+  <si>
+    <t>WIND_OFF</t>
+  </si>
+  <si>
+    <t>NATGAS</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>Wind onshore</t>
+  </si>
+  <si>
+    <t>Wind offshore</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>MIN_WIND_ON</t>
+  </si>
+  <si>
+    <t>MIN_WIND_OFF</t>
+  </si>
+  <si>
+    <t>IMP_NAT_GAS</t>
+  </si>
+  <si>
+    <t>IMP_ELC</t>
+  </si>
+  <si>
+    <t>tbd</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>CUM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -2086,7 +2150,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2146,17 +2210,14 @@
     <xf numFmtId="1" fontId="5" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="27" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2164,8 +2225,8 @@
     <xf numFmtId="0" fontId="53" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="5" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="338">
@@ -3007,24 +3068,24 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G20"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="3" width="14.265625" customWidth="1"/>
+    <col min="4" max="4" width="32.73046875" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" customWidth="1"/>
+    <col min="9" max="9" width="15.73046875" customWidth="1"/>
+    <col min="10" max="10" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18">
+    <row r="2" spans="2:9" ht="17.25">
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
@@ -3056,7 +3117,7 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" ht="13.15">
       <c r="B5" s="29" t="s">
         <v>2</v>
       </c>
@@ -3108,52 +3169,104 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+    <row r="7" spans="2:9">
+      <c r="B7" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
     </row>
-    <row r="8" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+    <row r="8" spans="2:9">
+      <c r="B8" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+    <row r="9" spans="2:9">
+      <c r="B9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="G9" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
+    <row r="10" spans="2:9">
+      <c r="B10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>83</v>
+      </c>
       <c r="F11" s="19"/>
+      <c r="G11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="24"/>
@@ -3207,11 +3320,11 @@
       <c r="C22" s="24"/>
       <c r="E22" s="24"/>
     </row>
-    <row r="24" spans="2:5" ht="13.5" thickBot="1">
-      <c r="B24" s="39" t="s">
+    <row r="24" spans="2:5" ht="13.15" thickBot="1">
+      <c r="B24" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="39"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="20" t="s">
@@ -3245,7 +3358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="13.5" thickBot="1">
+    <row r="29" spans="2:5" ht="13.15" thickBot="1">
       <c r="B29" s="23" t="s">
         <v>26</v>
       </c>
@@ -3269,22 +3382,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.59765625" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="9" width="14.265625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="18" customHeight="1">
@@ -3368,57 +3481,115 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
+      <c r="D7" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B8" s="32"/>
+      <c r="B8" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="D8" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="32"/>
+      <c r="B9" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="D9" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1">
-      <c r="B10" s="33"/>
+      <c r="B10" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
+      <c r="D10" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="32"/>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="33"/>
+      <c r="B11" s="33" t="s">
+        <v>48</v>
+      </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
+      <c r="D11" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="24"/>
@@ -3473,11 +3644,11 @@
       <c r="F19" s="19"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="22" t="s">
@@ -3557,7 +3728,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="13.5" thickBot="1">
+    <row r="31" spans="2:6" ht="13.15" thickBot="1">
       <c r="B31" s="23" t="s">
         <v>66</v>
       </c>
@@ -3582,18 +3753,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.73046875" customWidth="1"/>
+    <col min="2" max="2" width="22.73046875" customWidth="1"/>
+    <col min="3" max="3" width="27.265625" customWidth="1"/>
+    <col min="4" max="5" width="12.73046875" customWidth="1"/>
+    <col min="6" max="7" width="14.265625" customWidth="1"/>
+    <col min="8" max="10" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -3617,7 +3788,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="18">
+    <row r="2" spans="1:20" ht="17.25">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
         <v>68</v>
@@ -3696,8 +3867,12 @@
       <c r="D5" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
+      <c r="E5" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>101</v>
+      </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -3745,41 +3920,71 @@
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="34" t="str">
+        <f>SEC_Processes!D7</f>
+        <v>MIN_SOLAR</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="34" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E7" s="40">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="F7" s="34"/>
       <c r="H7" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="36">
         <v>10</v>
       </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="34" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>MIN_WIND_ON</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="34" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>WIND_ON</v>
+      </c>
+      <c r="E8" s="40">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="F8" s="34"/>
       <c r="H8" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="36">
         <v>50</v>
       </c>
-      <c r="K8" s="38"/>
+      <c r="K8" s="36"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="34" t="str">
+        <f>SEC_Processes!D9</f>
+        <v>MIN_WIND_OFF</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="34" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>WIND_OFF</v>
+      </c>
+      <c r="E9" s="40">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="36"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="24" t="s">
         <v>78</v>
       </c>
@@ -3787,19 +3992,39 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+    <row r="10" spans="1:20" ht="13.5">
+      <c r="B10" s="34" t="str">
+        <f>SEC_Processes!D10</f>
+        <v>IMP_NAT_GAS</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="34" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>NATGAS</v>
+      </c>
+      <c r="E10" s="36">
+        <v>10</v>
+      </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:20" ht="13.5">
+      <c r="B11" s="34" t="str">
+        <f>SEC_Processes!D11</f>
+        <v>IMP_ELC</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="34" t="str">
+        <f>SEC_Comm!C11</f>
+        <v>ELC</v>
+      </c>
+      <c r="E11" s="36">
+        <v>50</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:20">
@@ -3835,12 +4060,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -3984,6 +4203,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
   <ds:schemaRefs>
@@ -3993,15 +4218,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4ADE2FD8-87C7-41E1-A1A0-6DF35B741F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4017,4 +4233,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>